--- a/Zestawienie Korpusy.xlsx
+++ b/Zestawienie Korpusy.xlsx
@@ -12,60 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Grupa</t>
   </si>
   <si>
-    <t>E17/1</t>
-  </si>
-  <si>
-    <t>18/K3</t>
-  </si>
-  <si>
-    <t>20/K1</t>
-  </si>
-  <si>
-    <t>E20/1</t>
-  </si>
-  <si>
-    <t>20/1</t>
-  </si>
-  <si>
-    <t>20/K3</t>
-  </si>
-  <si>
-    <t>20/3</t>
-  </si>
-  <si>
-    <t>20/K4</t>
-  </si>
-  <si>
-    <t>20/4</t>
-  </si>
-  <si>
-    <t>20/K6</t>
-  </si>
-  <si>
-    <t>20/6</t>
-  </si>
-  <si>
-    <t>21/K1</t>
-  </si>
-  <si>
     <t>21/1</t>
   </si>
   <si>
-    <t>21/K2</t>
-  </si>
-  <si>
-    <t>21/2</t>
-  </si>
-  <si>
-    <t>21/K3</t>
-  </si>
-  <si>
-    <t>21/3</t>
+    <t>22/K1</t>
+  </si>
+  <si>
+    <t>22/1</t>
+  </si>
+  <si>
+    <t>22/2</t>
+  </si>
+  <si>
+    <t>22/K3</t>
+  </si>
+  <si>
+    <t>22/3</t>
+  </si>
+  <si>
+    <t>23/K1</t>
+  </si>
+  <si>
+    <t>23/1</t>
+  </si>
+  <si>
+    <t>23/K2</t>
+  </si>
+  <si>
+    <t>23/2</t>
+  </si>
+  <si>
+    <t>23/K3</t>
+  </si>
+  <si>
+    <t>23/3</t>
   </si>
   <si>
     <t>1. Certos/Akku/Sport</t>
@@ -93,6 +78,9 @@
   </si>
   <si>
     <t>9. Cokoły</t>
+  </si>
+  <si>
+    <t>10. Zgrzewarki</t>
   </si>
   <si>
     <t>Suma</t>
@@ -140,30 +128,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.69140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.65625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.69140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="5.421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="5.421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.421875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="5.421875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.71875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.71875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.421875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.71875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -206,28 +189,13 @@
       <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="0">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
@@ -242,45 +210,30 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>2.43</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>1.34</v>
       </c>
-      <c r="I2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>4.65</v>
-      </c>
       <c r="K2" t="n" s="0">
-        <v>5.48</v>
+        <v>12.02</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>26.4</v>
+        <v>2.34</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="N2" t="n" s="0">
-        <v>14.86</v>
-      </c>
-      <c r="O2" t="n" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P2" t="n" s="0">
-        <v>30.53</v>
-      </c>
-      <c r="Q2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n" s="0">
-        <v>0.0</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>0.0</v>
@@ -292,7 +245,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.81</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
@@ -301,42 +254,27 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>10.84</v>
+        <v>0.4</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N3" t="n" s="0">
-        <v>12.85</v>
-      </c>
-      <c r="O3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="P3" t="n" s="0">
-        <v>5.73</v>
-      </c>
-      <c r="Q3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n" s="0">
-        <v>1.41</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>0.0</v>
@@ -366,33 +304,18 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="L4" t="n" s="0">
         <v>1.14</v>
       </c>
-      <c r="L4" t="n" s="0">
-        <v>8.55</v>
-      </c>
       <c r="M4" t="n" s="0">
-        <v>0.57</v>
-      </c>
-      <c r="N4" t="n" s="0">
-        <v>2.28</v>
-      </c>
-      <c r="O4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n" s="0">
-        <v>6.27</v>
-      </c>
-      <c r="Q4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>0.0</v>
@@ -422,33 +345,18 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.0</v>
+        <v>2.24</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n" s="0">
-        <v>5.1</v>
-      </c>
-      <c r="O5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="P5" t="n" s="0">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>0.0</v>
@@ -457,13 +365,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
@@ -472,39 +380,24 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>1.5</v>
+        <v>0.26</v>
       </c>
       <c r="J6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>2.0</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n" s="0">
-        <v>1.12</v>
-      </c>
-      <c r="O6" t="n" s="0">
-        <v>4.48</v>
-      </c>
-      <c r="P6" t="n" s="0">
-        <v>7.88</v>
-      </c>
-      <c r="Q6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n" s="0">
-        <v>0.0</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>0.0</v>
@@ -513,54 +406,39 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.0</v>
+        <v>2.94</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>0.0</v>
+        <v>0.72</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>4.47</v>
+        <v>15.68</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>25.09</v>
+        <v>39.15</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>42.7</v>
+        <v>14.21</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>21.99</v>
+        <v>96.79</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>44.44</v>
+        <v>8.28</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>26.67</v>
-      </c>
-      <c r="N7" t="n" s="0">
-        <v>55.18</v>
-      </c>
-      <c r="O7" t="n" s="0">
-        <v>73.59</v>
-      </c>
-      <c r="P7" t="n" s="0">
-        <v>14.59</v>
-      </c>
-      <c r="Q7" t="n" s="0">
-        <v>22.5</v>
-      </c>
-      <c r="R7" t="n" s="0">
-        <v>0.0</v>
+        <v>48.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>0.0</v>
@@ -584,7 +462,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>0.0</v>
@@ -593,30 +471,15 @@
         <v>0.0</v>
       </c>
       <c r="L8" t="n" s="0">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>0.0</v>
@@ -637,48 +500,33 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>3.44</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>0.94</v>
+        <v>0.0</v>
       </c>
       <c r="L9" t="n" s="0">
-        <v>4.12</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n" s="0">
-        <v>2.59</v>
-      </c>
-      <c r="N9" t="n" s="0">
-        <v>11.66</v>
-      </c>
-      <c r="O9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n" s="0">
-        <v>7.8</v>
-      </c>
-      <c r="Q9" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="R9" t="n" s="0">
-        <v>0.0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>0.24</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -708,78 +556,89 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="P10" t="n" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="Q10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>1.5</v>
+        <v>0.18</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>1.45</v>
+        <v>0.06</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>0.81</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>0.13</v>
+        <v>3.64</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>7.71</v>
+        <v>4.58</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>28.63</v>
+        <v>3.91</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>53.79</v>
+        <v>2.61</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>30.31</v>
+        <v>3.14</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>97.85</v>
+        <v>0.86</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>33.73</v>
-      </c>
-      <c r="N11" t="n" s="0">
-        <v>103.05</v>
-      </c>
-      <c r="O11" t="n" s="0">
-        <v>82.05</v>
-      </c>
-      <c r="P11" t="n" s="0">
-        <v>74.52</v>
-      </c>
-      <c r="Q11" t="n" s="0">
-        <v>27.5</v>
-      </c>
-      <c r="R11" t="n" s="0">
-        <v>1.41</v>
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>2.94</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>15.68</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>42.16</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>15.55</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>128.55</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>15.68</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>151.99</v>
       </c>
     </row>
   </sheetData>
